--- a/Ex2_phenologydata.xlsx
+++ b/Ex2_phenologydata.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yutaro\Documents\RShiny_PlantPhenology\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B311D653-18FD-4D11-80B2-9578FD40D7F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenology" sheetId="1" r:id="rId1"/>
     <sheet name="climate" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -94,7 +100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -149,6 +155,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -473,34 +487,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.69921875" customWidth="1"/>
     <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" customWidth="1"/>
+    <col min="6" max="6" width="6.69921875" customWidth="1"/>
+    <col min="7" max="7" width="6.296875" customWidth="1"/>
     <col min="8" max="8" width="6.5" customWidth="1"/>
-    <col min="9" max="10" width="6.33203125" customWidth="1"/>
+    <col min="9" max="10" width="6.296875" customWidth="1"/>
     <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" customWidth="1"/>
-    <col min="13" max="13" width="6.83203125" customWidth="1"/>
+    <col min="12" max="12" width="6.69921875" customWidth="1"/>
+    <col min="13" max="13" width="6.796875" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
     <col min="15" max="15" width="8.5" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
     <col min="22" max="22" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
         <v>20</v>
       </c>
@@ -527,7 +541,7 @@
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" ht="45">
+    <row r="2" spans="1:22" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -589,7 +603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1893</v>
       </c>
@@ -626,12 +640,7 @@
       <c r="M3">
         <v>-1.8</v>
       </c>
-      <c r="N3">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="O3" s="4">
-        <v>8.6363636363636402</v>
-      </c>
+      <c r="O3" s="4"/>
       <c r="P3">
         <v>134</v>
       </c>
@@ -648,7 +657,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1894</v>
       </c>
@@ -689,7 +698,8 @@
         <v>-1.3</v>
       </c>
       <c r="N4">
-        <v>2.2999999999999998</v>
+        <f t="shared" ref="N4:N17" si="0">AVERAGE(B4:E4)</f>
+        <v>1.0000000000000002</v>
       </c>
       <c r="O4" s="4">
         <v>8.93333333333333</v>
@@ -710,7 +720,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1895</v>
       </c>
@@ -751,7 +761,8 @@
         <v>0.4</v>
       </c>
       <c r="N5">
-        <v>1.55</v>
+        <f t="shared" si="0"/>
+        <v>-0.82499999999999996</v>
       </c>
       <c r="O5" s="4">
         <v>8.5416666666666696</v>
@@ -772,7 +783,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1896</v>
       </c>
@@ -813,7 +824,8 @@
         <v>-2.9</v>
       </c>
       <c r="N6">
-        <v>1.1499999999999999</v>
+        <f t="shared" si="0"/>
+        <v>-0.64999999999999991</v>
       </c>
       <c r="O6" s="4">
         <v>8.25</v>
@@ -834,7 +846,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1897</v>
       </c>
@@ -875,7 +887,8 @@
         <v>-0.8</v>
       </c>
       <c r="N7">
-        <v>2.15</v>
+        <f t="shared" si="0"/>
+        <v>0.77500000000000013</v>
       </c>
       <c r="O7" s="4">
         <v>8.4916666666666707</v>
@@ -896,7 +909,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1898</v>
       </c>
@@ -937,7 +950,8 @@
         <v>-2</v>
       </c>
       <c r="N8">
-        <v>0.65</v>
+        <f t="shared" si="0"/>
+        <v>1.2250000000000001</v>
       </c>
       <c r="O8" s="4">
         <v>9.0250000000000004</v>
@@ -958,7 +972,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1899</v>
       </c>
@@ -999,7 +1013,8 @@
         <v>0.4</v>
       </c>
       <c r="N9">
-        <v>2.25</v>
+        <f t="shared" si="0"/>
+        <v>-0.22499999999999987</v>
       </c>
       <c r="O9" s="4">
         <v>8.7083333333333304</v>
@@ -1020,7 +1035,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1900</v>
       </c>
@@ -1061,7 +1076,8 @@
         <v>-1.1000000000000001</v>
       </c>
       <c r="N10">
-        <v>2.65</v>
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
       </c>
       <c r="O10" s="4">
         <v>9.2333333333333307</v>
@@ -1082,7 +1098,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1901</v>
       </c>
@@ -1123,7 +1139,8 @@
         <v>-1.7</v>
       </c>
       <c r="N11">
-        <v>0.55000000000000004</v>
+        <f t="shared" si="0"/>
+        <v>-1.125</v>
       </c>
       <c r="O11" s="4">
         <v>8.1666666666666696</v>
@@ -1144,7 +1161,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1902</v>
       </c>
@@ -1185,7 +1202,8 @@
         <v>-3.1</v>
       </c>
       <c r="N12">
-        <v>1.8</v>
+        <f t="shared" si="0"/>
+        <v>1.3249999999999997</v>
       </c>
       <c r="O12" s="4">
         <v>8.69166666666667</v>
@@ -1206,7 +1224,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1903</v>
       </c>
@@ -1247,7 +1265,8 @@
         <v>-4.0999999999999996</v>
       </c>
       <c r="N13">
-        <v>2.2999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>2.2749999999999999</v>
       </c>
       <c r="O13" s="4">
         <v>8.5333333333333297</v>
@@ -1259,7 +1278,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2003</v>
       </c>
@@ -1300,7 +1319,8 @@
         <v>0.4</v>
       </c>
       <c r="N14">
-        <v>-0.45</v>
+        <f t="shared" si="0"/>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="O14" s="4">
         <v>8.80833333333333</v>
@@ -1321,7 +1341,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2004</v>
       </c>
@@ -1362,7 +1382,8 @@
         <v>-0.3</v>
       </c>
       <c r="N15">
-        <v>-0.15</v>
+        <f t="shared" si="0"/>
+        <v>-2.5000000000000355E-2</v>
       </c>
       <c r="O15" s="4">
         <v>9.0166666666666693</v>
@@ -1383,7 +1404,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2005</v>
       </c>
@@ -1424,7 +1445,8 @@
         <v>-1.2</v>
       </c>
       <c r="N16">
-        <v>2.6</v>
+        <f t="shared" si="0"/>
+        <v>0.97499999999999987</v>
       </c>
       <c r="O16" s="4">
         <v>9.7083333333333304</v>
@@ -1445,7 +1467,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2006</v>
       </c>
@@ -1486,7 +1508,8 @@
         <v>3.4</v>
       </c>
       <c r="N17">
-        <v>5.3</v>
+        <f t="shared" si="0"/>
+        <v>2.8499999999999996</v>
       </c>
       <c r="O17" s="4">
         <v>10.6666666666667</v>
@@ -1516,16 +1539,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="N120" sqref="N120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1566,7 +1589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1893</v>
       </c>
@@ -1607,7 +1630,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1894</v>
       </c>
@@ -1648,7 +1671,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1895</v>
       </c>
@@ -1689,7 +1712,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1896</v>
       </c>
@@ -1730,7 +1753,7 @@
         <v>-2.9</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1897</v>
       </c>
@@ -1771,7 +1794,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1898</v>
       </c>
@@ -1812,7 +1835,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1899</v>
       </c>
@@ -1853,7 +1876,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1900</v>
       </c>
@@ -1894,7 +1917,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1901</v>
       </c>
@@ -1935,7 +1958,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1902</v>
       </c>
@@ -1976,7 +1999,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1903</v>
       </c>
@@ -2017,7 +2040,7 @@
         <v>-4.0999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1904</v>
       </c>
@@ -2058,7 +2081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1905</v>
       </c>
@@ -2099,7 +2122,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1906</v>
       </c>
@@ -2140,7 +2163,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1907</v>
       </c>
@@ -2181,7 +2204,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1908</v>
       </c>
@@ -2222,7 +2245,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1909</v>
       </c>
@@ -2263,7 +2286,7 @@
         <v>-3.9</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1910</v>
       </c>
@@ -2304,7 +2327,7 @@
         <v>-4.5999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1911</v>
       </c>
@@ -2345,7 +2368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1912</v>
       </c>
@@ -2386,7 +2409,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1913</v>
       </c>
@@ -2427,7 +2450,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1914</v>
       </c>
@@ -2468,7 +2491,7 @@
         <v>-2.9</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1915</v>
       </c>
@@ -2509,7 +2532,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1916</v>
       </c>
@@ -2550,7 +2573,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1917</v>
       </c>
@@ -2591,7 +2614,7 @@
         <v>-6.3</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1918</v>
       </c>
@@ -2632,7 +2655,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1919</v>
       </c>
@@ -2673,7 +2696,7 @@
         <v>-4.5999999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1920</v>
       </c>
@@ -2714,7 +2737,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1921</v>
       </c>
@@ -2755,7 +2778,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1922</v>
       </c>
@@ -2796,7 +2819,7 @@
         <v>-2.9</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1923</v>
       </c>
@@ -2837,7 +2860,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1924</v>
       </c>
@@ -2878,7 +2901,7 @@
         <v>-3.4</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1925</v>
       </c>
@@ -2919,7 +2942,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1926</v>
       </c>
@@ -2960,7 +2983,7 @@
         <v>-3.2</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1927</v>
       </c>
@@ -3001,7 +3024,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1928</v>
       </c>
@@ -3042,7 +3065,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1929</v>
       </c>
@@ -3083,7 +3106,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1930</v>
       </c>
@@ -3124,7 +3147,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1931</v>
       </c>
@@ -3165,7 +3188,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1932</v>
       </c>
@@ -3206,7 +3229,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1933</v>
       </c>
@@ -3247,7 +3270,7 @@
         <v>-4.4000000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1934</v>
       </c>
@@ -3288,7 +3311,7 @@
         <v>-3.3</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1935</v>
       </c>
@@ -3329,7 +3352,7 @@
         <v>-4.5</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1936</v>
       </c>
@@ -3370,7 +3393,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1937</v>
       </c>
@@ -3411,7 +3434,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1938</v>
       </c>
@@ -3452,7 +3475,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1939</v>
       </c>
@@ -3493,7 +3516,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1940</v>
       </c>
@@ -3534,7 +3557,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1941</v>
       </c>
@@ -3575,7 +3598,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1942</v>
       </c>
@@ -3616,7 +3639,7 @@
         <v>-3.4</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1943</v>
       </c>
@@ -3657,7 +3680,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1944</v>
       </c>
@@ -3698,7 +3721,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1945</v>
       </c>
@@ -3739,7 +3762,7 @@
         <v>-3.7</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1946</v>
       </c>
@@ -3780,7 +3803,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1947</v>
       </c>
@@ -3821,7 +3844,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1948</v>
       </c>
@@ -3862,7 +3885,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1949</v>
       </c>
@@ -3903,7 +3926,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1950</v>
       </c>
@@ -3944,7 +3967,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1951</v>
       </c>
@@ -3985,7 +4008,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1952</v>
       </c>
@@ -4026,7 +4049,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1953</v>
       </c>
@@ -4067,7 +4090,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1954</v>
       </c>
@@ -4108,7 +4131,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1955</v>
       </c>
@@ -4149,7 +4172,7 @@
         <v>-4.8</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1956</v>
       </c>
@@ -4190,7 +4213,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1957</v>
       </c>
@@ -4231,7 +4254,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1958</v>
       </c>
@@ -4272,7 +4295,7 @@
         <v>-5.2</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1959</v>
       </c>
@@ -4313,7 +4336,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1960</v>
       </c>
@@ -4354,7 +4377,7 @@
         <v>-3.4</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1961</v>
       </c>
@@ -4395,7 +4418,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1962</v>
       </c>
@@ -4436,7 +4459,7 @@
         <v>-2.9</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1963</v>
       </c>
@@ -4477,7 +4500,7 @@
         <v>-5.2</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1964</v>
       </c>
@@ -4518,7 +4541,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1965</v>
       </c>
@@ -4559,7 +4582,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1966</v>
       </c>
@@ -4600,7 +4623,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1967</v>
       </c>
@@ -4641,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1968</v>
       </c>
@@ -4682,7 +4705,7 @@
         <v>-2.8</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1969</v>
       </c>
@@ -4723,7 +4746,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1970</v>
       </c>
@@ -4764,7 +4787,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1971</v>
       </c>
@@ -4805,7 +4828,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1972</v>
       </c>
@@ -4846,7 +4869,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1973</v>
       </c>
@@ -4887,7 +4910,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1974</v>
       </c>
@@ -4928,7 +4951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1975</v>
       </c>
@@ -4969,7 +4992,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1976</v>
       </c>
@@ -5010,7 +5033,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1977</v>
       </c>
@@ -5051,7 +5074,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1978</v>
       </c>
@@ -5092,7 +5115,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1979</v>
       </c>
@@ -5133,7 +5156,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1980</v>
       </c>
@@ -5174,7 +5197,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1981</v>
       </c>
@@ -5215,7 +5238,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1982</v>
       </c>
@@ -5256,7 +5279,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1983</v>
       </c>
@@ -5297,7 +5320,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1984</v>
       </c>
@@ -5338,7 +5361,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1985</v>
       </c>
@@ -5379,7 +5402,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1986</v>
       </c>
@@ -5420,7 +5443,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1987</v>
       </c>
@@ -5461,7 +5484,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1988</v>
       </c>
@@ -5502,7 +5525,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1989</v>
       </c>
@@ -5543,7 +5566,7 @@
         <v>-7.8</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1990</v>
       </c>
@@ -5584,7 +5607,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1991</v>
       </c>
@@ -5625,7 +5648,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1992</v>
       </c>
@@ -5666,7 +5689,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1993</v>
       </c>
@@ -5707,7 +5730,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1994</v>
       </c>
@@ -5748,7 +5771,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1995</v>
       </c>
@@ -5789,7 +5812,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1996</v>
       </c>
@@ -5830,7 +5853,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1997</v>
       </c>
@@ -5871,7 +5894,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1998</v>
       </c>
@@ -5912,7 +5935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1999</v>
       </c>
@@ -5953,7 +5976,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2000</v>
       </c>
@@ -5994,7 +6017,7 @@
         <v>-3.3</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2001</v>
       </c>
@@ -6035,7 +6058,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2002</v>
       </c>
@@ -6076,7 +6099,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2003</v>
       </c>
@@ -6117,7 +6140,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2004</v>
       </c>
@@ -6158,7 +6181,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2005</v>
       </c>
@@ -6199,7 +6222,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2006</v>
       </c>
@@ -6240,7 +6263,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2007</v>
       </c>
@@ -6281,7 +6304,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2008</v>
       </c>
@@ -6322,7 +6345,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2009</v>
       </c>
@@ -6363,7 +6386,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2010</v>
       </c>
@@ -6404,7 +6427,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2011</v>
       </c>
@@ -6445,7 +6468,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2012</v>
       </c>
@@ -6486,7 +6509,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2013</v>
       </c>
@@ -6527,7 +6550,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2014</v>
       </c>
@@ -6568,7 +6591,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2015</v>
       </c>
